--- a/Interessentenquote pro Ortsteil und Strassen.xlsx
+++ b/Interessentenquote pro Ortsteil und Strassen.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Victor/Library/Mobile Documents/com~apple~CloudDocs/Bürgermeisteramt/Nahwärme/Arbeitsgruppe/Website/per-ssh-geclont/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE9AEE-EF2C-6A4E-9479-69CE9146D20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="21540" windowHeight="15640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lettgenbrunn" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Oberndorf" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Oberndorf_export" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Pfaffenhausen" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Pfaffenhausen_export" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Lettgenbrunn" sheetId="1" r:id="rId1"/>
+    <sheet name="Oberndorf" sheetId="2" r:id="rId2"/>
+    <sheet name="Oberndorf_export" sheetId="3" r:id="rId3"/>
+    <sheet name="Pfaffenhausen" sheetId="4" r:id="rId4"/>
+    <sheet name="Pfaffenhausen_export" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,622 +42,620 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="202">
   <si>
-    <t xml:space="preserve">Straßen Lettgenbrunn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebäude insgesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interessenten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prozent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Beilsitein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Hartrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Villbacher Grund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berliner Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breslauer Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dresdner Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egerländer Weg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankenweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heinrich-Kreß-Weg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindenburgstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villbach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karlsbader Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostpreußenstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quellenweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosenweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonnenweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stettiner Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudetenstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Südmährer Weg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urlauber Weg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straßen Oberndorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelpunkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Buschel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.18812012025032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.476902068253725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Buschel 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Mathes-Ellerberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.18990964582242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.471020290491824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Mathes-Ellerberg 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Wiesengrund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19689417761221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.472509906671503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Wiesengrund 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Wiesenrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1875849240037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.471760833588062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Wiesenrain 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birkenstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.187599952599896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47454758057816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birkenstraße 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bornrainstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19432198426284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.471407889635323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bornrainstraße 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burgjoßer Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19759435108727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.475347986660175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burgjosser Straße 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutelbacher Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.188701095855485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.475191620602361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutelbacher Straße 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eichenweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1956640746215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.471189054455637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eichenweg 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellerweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19487276820518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.470049260216323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellerweg 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferdlsturz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferdlsturz 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flattbergstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.18887093623867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.476766801997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flattbergstraße 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurter Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19563866586565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.472875234323348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurter Straße 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heimbuchenstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19499515345328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.474210052921048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heimbuchenstraße 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herrnfeldstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19692709226025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.473746546901651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herrnfeldstraße 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lohrer Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.18842794716689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.473052580538736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lohrer Straße 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinusstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19186480033287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.472493282685706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinusstraße 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.191139387191065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.473621796798858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelstraße 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orber Gasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.192085211732255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46953047682783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orber Gasse 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabenbergstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.188219404074445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.470685169857292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabenbergstraße 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schulstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.192706882515346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.469971034516192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schulstraße 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.18705761023053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.469852013293963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldstraße 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zöllersberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.19049948287583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.473937868072756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zöllersberg 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straßen Pfaffenhausen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altfeldstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16742533454372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.480877957315249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altfeldstraße 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Hohen Kreuz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.169046755474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.480975137765206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Hohen Kreuz 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auratalstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.168254634200366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48320539709148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auratalstraße 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.171562376962186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47287831712334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austraße 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16786351358572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47504310413872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergstraße 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friedhofstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.170592337722525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.476083817632833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friedhofstraße 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handtalstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16484911577396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.474144660117405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handtalstraße 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heinbergweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16351293758804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.469577983579578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heinbergweg 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himmelspforte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16947182161778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47939992623944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himmelspforte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im Brühl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16965343429544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47494092470609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im Brühl 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jossastraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.171813476027005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.474862806075897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jossastraße 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalbachstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1686534661237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.479475781605903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalbachstraße 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Königsbergstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.172993949751884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.475193083725067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Königsbergstraße 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreuzfeldstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16520273934288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47108876689353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreuzfeldstraße 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lettgenbrunner Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.164150346782144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46978193934964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lettgenbrunner Straße 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lohrhaupter Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.16764952605749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.474089537706963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lohrhaupter Straße 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mühlstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.168065251493296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.473221067543049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mühlstraße 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orber Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.170495479221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.472032622011254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orber Straße 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwarzegrundstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.174467938735866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.471300796161346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwarzegrundstraße 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanröse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.169905606230834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47454594962864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanröse 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorher:</t>
+    <t>Straßen Lettgenbrunn</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Gebäude insgesamt</t>
+  </si>
+  <si>
+    <t>Interessenten</t>
+  </si>
+  <si>
+    <t>Prozent</t>
+  </si>
+  <si>
+    <t>Am Beilsitein</t>
+  </si>
+  <si>
+    <t>Am Hartrain</t>
+  </si>
+  <si>
+    <t>Am Villbacher Grund</t>
+  </si>
+  <si>
+    <t>Berliner Straße</t>
+  </si>
+  <si>
+    <t>Breslauer Straße</t>
+  </si>
+  <si>
+    <t>Dresdner Straße</t>
+  </si>
+  <si>
+    <t>Egerländer Weg</t>
+  </si>
+  <si>
+    <t>Frankenweg</t>
+  </si>
+  <si>
+    <t>Heinrich-Kreß-Weg</t>
+  </si>
+  <si>
+    <t>Hindenburgstraße</t>
+  </si>
+  <si>
+    <t>Villbach</t>
+  </si>
+  <si>
+    <t>Karlsbader Straße</t>
+  </si>
+  <si>
+    <t>Ostpreußenstraße</t>
+  </si>
+  <si>
+    <t>Quellenweg</t>
+  </si>
+  <si>
+    <t>Rosenweg</t>
+  </si>
+  <si>
+    <t>Sonnenweg</t>
+  </si>
+  <si>
+    <t>Stettiner Straße</t>
+  </si>
+  <si>
+    <t>Sudetenstraße</t>
+  </si>
+  <si>
+    <t>Südmährer Weg</t>
+  </si>
+  <si>
+    <t>Urlauber Weg</t>
+  </si>
+  <si>
+    <t>Vorher</t>
+  </si>
+  <si>
+    <t>Straßen Oberndorf</t>
+  </si>
+  <si>
+    <t>Mittelpunkt</t>
+  </si>
+  <si>
+    <t>Am Buschel</t>
+  </si>
+  <si>
+    <t>50.18812012025032</t>
+  </si>
+  <si>
+    <t>9.476902068253725</t>
+  </si>
+  <si>
+    <t>Am Buschel 6</t>
+  </si>
+  <si>
+    <t>Am Mathes-Ellerberg</t>
+  </si>
+  <si>
+    <t>50.18990964582242</t>
+  </si>
+  <si>
+    <t>9.471020290491824</t>
+  </si>
+  <si>
+    <t>Am Mathes-Ellerberg 4</t>
+  </si>
+  <si>
+    <t>Am Wiesengrund</t>
+  </si>
+  <si>
+    <t>50.19689417761221</t>
+  </si>
+  <si>
+    <t>9.472509906671503</t>
+  </si>
+  <si>
+    <t>Am Wiesengrund 5</t>
+  </si>
+  <si>
+    <t>Am Wiesenrain</t>
+  </si>
+  <si>
+    <t>50.1875849240037</t>
+  </si>
+  <si>
+    <t>9.471760833588062</t>
+  </si>
+  <si>
+    <t>Am Wiesenrain 10</t>
+  </si>
+  <si>
+    <t>Birkenstraße</t>
+  </si>
+  <si>
+    <t>50.187599952599896</t>
+  </si>
+  <si>
+    <t>9.47454758057816</t>
+  </si>
+  <si>
+    <t>Birkenstraße 8</t>
+  </si>
+  <si>
+    <t>Bornrainstraße</t>
+  </si>
+  <si>
+    <t>50.19432198426284</t>
+  </si>
+  <si>
+    <t>9.471407889635323</t>
+  </si>
+  <si>
+    <t>Bornrainstraße 10</t>
+  </si>
+  <si>
+    <t>Burgjoßer Straße</t>
+  </si>
+  <si>
+    <t>50.19759435108727</t>
+  </si>
+  <si>
+    <t>9.475347986660175</t>
+  </si>
+  <si>
+    <t>Burgjosser Straße 18</t>
+  </si>
+  <si>
+    <t>Deutelbacher Straße</t>
+  </si>
+  <si>
+    <t>50.188701095855485</t>
+  </si>
+  <si>
+    <t>9.475191620602361</t>
+  </si>
+  <si>
+    <t>Deutelbacher Straße 13</t>
+  </si>
+  <si>
+    <t>Eichenweg</t>
+  </si>
+  <si>
+    <t>50.1956640746215</t>
+  </si>
+  <si>
+    <t>9.471189054455637</t>
+  </si>
+  <si>
+    <t>Eichenweg 2</t>
+  </si>
+  <si>
+    <t>Ellerweg</t>
+  </si>
+  <si>
+    <t>50.19487276820518</t>
+  </si>
+  <si>
+    <t>9.470049260216323</t>
+  </si>
+  <si>
+    <t>Ellerweg 6</t>
+  </si>
+  <si>
+    <t>Ferdlsturz</t>
+  </si>
+  <si>
+    <t>Ferdlsturz 5</t>
+  </si>
+  <si>
+    <t>Flattbergstraße</t>
+  </si>
+  <si>
+    <t>50.18887093623867</t>
+  </si>
+  <si>
+    <t>9.476766801997</t>
+  </si>
+  <si>
+    <t>Flattbergstraße 6</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße</t>
+  </si>
+  <si>
+    <t>50.19563866586565</t>
+  </si>
+  <si>
+    <t>9.472875234323348</t>
+  </si>
+  <si>
+    <t>Frankfurter Straße 15</t>
+  </si>
+  <si>
+    <t>Heimbuchenstraße</t>
+  </si>
+  <si>
+    <t>50.19499515345328</t>
+  </si>
+  <si>
+    <t>9.474210052921048</t>
+  </si>
+  <si>
+    <t>Heimbuchenstraße 4</t>
+  </si>
+  <si>
+    <t>Herrnfeldstraße</t>
+  </si>
+  <si>
+    <t>50.19692709226025</t>
+  </si>
+  <si>
+    <t>9.473746546901651</t>
+  </si>
+  <si>
+    <t>Herrnfeldstraße 17</t>
+  </si>
+  <si>
+    <t>Lohrer Straße</t>
+  </si>
+  <si>
+    <t>50.18842794716689</t>
+  </si>
+  <si>
+    <t>9.473052580538736</t>
+  </si>
+  <si>
+    <t>Lohrer Straße 20</t>
+  </si>
+  <si>
+    <t>Martinusstraße</t>
+  </si>
+  <si>
+    <t>50.19186480033287</t>
+  </si>
+  <si>
+    <t>9.472493282685706</t>
+  </si>
+  <si>
+    <t>Martinusstraße 7</t>
+  </si>
+  <si>
+    <t>Mittelstraße</t>
+  </si>
+  <si>
+    <t>50.191139387191065</t>
+  </si>
+  <si>
+    <t>9.473621796798858</t>
+  </si>
+  <si>
+    <t>Mittelstraße 9</t>
+  </si>
+  <si>
+    <t>Orber Gasse</t>
+  </si>
+  <si>
+    <t>50.192085211732255</t>
+  </si>
+  <si>
+    <t>9.46953047682783</t>
+  </si>
+  <si>
+    <t>Orber Gasse 14</t>
+  </si>
+  <si>
+    <t>Rabenbergstraße</t>
+  </si>
+  <si>
+    <t>50.188219404074445</t>
+  </si>
+  <si>
+    <t>9.470685169857292</t>
+  </si>
+  <si>
+    <t>Rabenbergstraße 14</t>
+  </si>
+  <si>
+    <t>Schulstraße</t>
+  </si>
+  <si>
+    <t>50.192706882515346</t>
+  </si>
+  <si>
+    <t>9.469971034516192</t>
+  </si>
+  <si>
+    <t>Schulstraße 16</t>
+  </si>
+  <si>
+    <t>Waldstraße</t>
+  </si>
+  <si>
+    <t>50.18705761023053</t>
+  </si>
+  <si>
+    <t>9.469852013293963</t>
+  </si>
+  <si>
+    <t>Waldstraße 10</t>
+  </si>
+  <si>
+    <t>Zöllersberg</t>
+  </si>
+  <si>
+    <t>50.19049948287583</t>
+  </si>
+  <si>
+    <t>9.473937868072756</t>
+  </si>
+  <si>
+    <t>Zöllersberg 5</t>
+  </si>
+  <si>
+    <t>Straßen Pfaffenhausen</t>
+  </si>
+  <si>
+    <t>Altfeldstraße</t>
+  </si>
+  <si>
+    <t>50.16742533454372</t>
+  </si>
+  <si>
+    <t>9.480877957315249</t>
+  </si>
+  <si>
+    <t>Altfeldstraße 25</t>
+  </si>
+  <si>
+    <t>Am Hohen Kreuz</t>
+  </si>
+  <si>
+    <t>50.169046755474</t>
+  </si>
+  <si>
+    <t>9.480975137765206</t>
+  </si>
+  <si>
+    <t>Am Hohen Kreuz 5</t>
+  </si>
+  <si>
+    <t>Auratalstraße</t>
+  </si>
+  <si>
+    <t>50.168254634200366</t>
+  </si>
+  <si>
+    <t>9.48320539709148</t>
+  </si>
+  <si>
+    <t>Auratalstraße 1</t>
+  </si>
+  <si>
+    <t>Austraße</t>
+  </si>
+  <si>
+    <t>50.171562376962186</t>
+  </si>
+  <si>
+    <t>9.47287831712334</t>
+  </si>
+  <si>
+    <t>Austraße 17</t>
+  </si>
+  <si>
+    <t>Bergstraße</t>
+  </si>
+  <si>
+    <t>50.16786351358572</t>
+  </si>
+  <si>
+    <t>9.47504310413872</t>
+  </si>
+  <si>
+    <t>Bergstraße 4</t>
+  </si>
+  <si>
+    <t>Friedhofstraße</t>
+  </si>
+  <si>
+    <t>50.170592337722525</t>
+  </si>
+  <si>
+    <t>9.476083817632833</t>
+  </si>
+  <si>
+    <t>Friedhofstraße 16</t>
+  </si>
+  <si>
+    <t>Handtalstraße</t>
+  </si>
+  <si>
+    <t>50.16484911577396</t>
+  </si>
+  <si>
+    <t>9.474144660117405</t>
+  </si>
+  <si>
+    <t>Handtalstraße 17</t>
+  </si>
+  <si>
+    <t>Heinbergweg</t>
+  </si>
+  <si>
+    <t>50.16351293758804</t>
+  </si>
+  <si>
+    <t>9.469577983579578</t>
+  </si>
+  <si>
+    <t>Heinbergweg 6</t>
+  </si>
+  <si>
+    <t>Himmelspforte</t>
+  </si>
+  <si>
+    <t>50.16947182161778</t>
+  </si>
+  <si>
+    <t>9.47939992623944</t>
+  </si>
+  <si>
+    <t>Himmelspforte 2</t>
+  </si>
+  <si>
+    <t>Im Brühl</t>
+  </si>
+  <si>
+    <t>50.16965343429544</t>
+  </si>
+  <si>
+    <t>9.47494092470609</t>
+  </si>
+  <si>
+    <t>Im Brühl 6</t>
+  </si>
+  <si>
+    <t>Jossastraße</t>
+  </si>
+  <si>
+    <t>50.171813476027005</t>
+  </si>
+  <si>
+    <t>9.474862806075897</t>
+  </si>
+  <si>
+    <t>Jossastraße 15</t>
+  </si>
+  <si>
+    <t>Kalbachstraße</t>
+  </si>
+  <si>
+    <t>50.1686534661237</t>
+  </si>
+  <si>
+    <t>9.479475781605903</t>
+  </si>
+  <si>
+    <t>Kalbachstraße 22</t>
+  </si>
+  <si>
+    <t>Königsbergstraße</t>
+  </si>
+  <si>
+    <t>50.172993949751884</t>
+  </si>
+  <si>
+    <t>9.475193083725067</t>
+  </si>
+  <si>
+    <t>Königsbergstraße 16</t>
+  </si>
+  <si>
+    <t>Kreuzfeldstraße</t>
+  </si>
+  <si>
+    <t>50.16520273934288</t>
+  </si>
+  <si>
+    <t>9.47108876689353</t>
+  </si>
+  <si>
+    <t>Kreuzfeldstraße 6</t>
+  </si>
+  <si>
+    <t>Lettgenbrunner Straße</t>
+  </si>
+  <si>
+    <t>50.164150346782144</t>
+  </si>
+  <si>
+    <t>9.46978193934964</t>
+  </si>
+  <si>
+    <t>Lettgenbrunner Straße 11</t>
+  </si>
+  <si>
+    <t>Lohrhaupter Straße</t>
+  </si>
+  <si>
+    <t>50.16764952605749</t>
+  </si>
+  <si>
+    <t>9.474089537706963</t>
+  </si>
+  <si>
+    <t>Lohrhaupter Straße 25</t>
+  </si>
+  <si>
+    <t>Mühlstraße</t>
+  </si>
+  <si>
+    <t>50.168065251493296</t>
+  </si>
+  <si>
+    <t>9.473221067543049</t>
+  </si>
+  <si>
+    <t>Mühlstraße 12</t>
+  </si>
+  <si>
+    <t>Orber Straße</t>
+  </si>
+  <si>
+    <t>50.170495479221</t>
+  </si>
+  <si>
+    <t>9.472032622011254</t>
+  </si>
+  <si>
+    <t>Orber Straße 16</t>
+  </si>
+  <si>
+    <t>Schwarzegrundstraße</t>
+  </si>
+  <si>
+    <t>50.174467938735866</t>
+  </si>
+  <si>
+    <t>9.471300796161346</t>
+  </si>
+  <si>
+    <t>Schwarzegrundstraße 15</t>
+  </si>
+  <si>
+    <t>Spanröse</t>
+  </si>
+  <si>
+    <t>50.169905606230834</t>
+  </si>
+  <si>
+    <t>9.47454594962864</t>
+  </si>
+  <si>
+    <t>Spanröse 4</t>
+  </si>
+  <si>
+    <t>Vorher:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,22 +664,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -673,7 +672,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -714,7 +713,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -722,101 +721,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -875,60 +802,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
     <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -960,7 +903,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -984,7 +927,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1044,38 +987,37 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B3:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.5"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1095,404 +1037,391 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <f aca="false">F7/E7*100</f>
-        <v>41.1764705882353</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:G25" si="0">F7/E7*100</f>
+        <v>41.17647058823529</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">F8/E8*100</f>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">F9/E9*100</f>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">F10/E10*100</f>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>11</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">F11/E11*100</f>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">F12/E12*100</f>
-        <v>92.8571428571429</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>92.857142857142861</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">F13/E13*100</f>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>6</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">F14/E14*100</f>
-        <v>46.1538461538462</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="4" t="n">
-        <f aca="false">F15/E15*100</f>
-        <v>57.1428571428571</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <f aca="false">F16/E16*100</f>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>14</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>8</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <f aca="false">F17/E17*100</f>
-        <v>57.1428571428571</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <f aca="false">F18/E18*100</f>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>15</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>10</v>
       </c>
-      <c r="G19" s="4" t="n">
-        <f aca="false">F19/E19*100</f>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="n">
-        <f aca="false">F20/E20*100</f>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="n">
-        <f aca="false">F21/E21*100</f>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="4" t="n">
-        <f aca="false">F22/E22*100</f>
-        <v>55.5555555555556</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>61</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>28</v>
       </c>
-      <c r="G23" s="4" t="n">
-        <f aca="false">F23/E23*100</f>
-        <v>45.9016393442623</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>45.901639344262293</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>30</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>12</v>
       </c>
-      <c r="G24" s="4" t="n">
-        <f aca="false">F24/E24*100</f>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="n">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>4</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="9" t="n">
-        <f aca="false">F25/E25*100</f>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="n">
-        <f aca="false">SUM(E7:E25)</f>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f>SUM(E7:E25)</f>
         <v>247</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">SUM(F7:F25)</f>
+      <c r="F27">
+        <f>SUM(F7:F25)</f>
         <v>140</v>
       </c>
-      <c r="G27" s="11" t="n">
-        <f aca="false">F27/E27*100</f>
-        <v>56.6801619433198</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
+      <c r="G27" s="9">
+        <f>F27/E27*100</f>
+        <v>56.680161943319838</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>237</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>104</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.66"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1511,11 +1440,11 @@
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1525,21 +1454,21 @@
       <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <f aca="false">F7/E7*100</f>
-        <v>85.7142857142857</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:G29" si="0">F7/E7*100</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1549,21 +1478,21 @@
       <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">F8/E8*100</f>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1573,21 +1502,21 @@
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">F9/E9*100</f>
-        <v>66.6666666666667</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1597,21 +1526,21 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">F10/E10*100</f>
-        <v>58.3333333333333</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1621,21 +1550,21 @@
       <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">F11/E11*100</f>
-        <v>47.0588235294118</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>47.058823529411761</v>
+      </c>
+      <c r="H11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1645,21 +1574,21 @@
       <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>22</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">F12/E12*100</f>
-        <v>59.0909090909091</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>59.090909090909093</v>
+      </c>
+      <c r="H12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1669,21 +1598,21 @@
       <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">F13/E13*100</f>
-        <v>44.8275862068966</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>44.827586206896555</v>
+      </c>
+      <c r="H13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1693,21 +1622,21 @@
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>26</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">F14/E14*100</f>
-        <v>69.2307692307692</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="H14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1717,21 +1646,21 @@
       <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="n">
-        <f aca="false">F15/E15*100</f>
-        <v>66.6666666666667</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>66</v>
       </c>
@@ -1741,41 +1670,41 @@
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>9</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <f aca="false">F16/E16*100</f>
-        <v>64.2857142857143</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="H16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <f aca="false">F17/E17*100</f>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
@@ -1785,21 +1714,21 @@
       <c r="D18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>7</v>
       </c>
-      <c r="G18" s="4" t="n">
-        <f aca="false">F18/E18*100</f>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
@@ -1809,21 +1738,21 @@
       <c r="D19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>33</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>15</v>
       </c>
-      <c r="G19" s="4" t="n">
-        <f aca="false">F19/E19*100</f>
-        <v>45.4545454545455</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="H19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>80</v>
       </c>
@@ -1833,21 +1762,21 @@
       <c r="D20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="4" t="n">
-        <f aca="false">F20/E20*100</f>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>84</v>
       </c>
@@ -1857,21 +1786,21 @@
       <c r="D21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>31</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>18</v>
       </c>
-      <c r="G21" s="4" t="n">
-        <f aca="false">F21/E21*100</f>
-        <v>58.0645161290323</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>58.064516129032263</v>
+      </c>
+      <c r="H21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
@@ -1881,21 +1810,21 @@
       <c r="D22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>22</v>
       </c>
-      <c r="G22" s="4" t="n">
-        <f aca="false">F22/E22*100</f>
-        <v>55</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="H22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>92</v>
       </c>
@@ -1905,21 +1834,21 @@
       <c r="D23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>11</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>8</v>
       </c>
-      <c r="G23" s="4" t="n">
-        <f aca="false">F23/E23*100</f>
-        <v>72.7272727272727</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="H23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>96</v>
       </c>
@@ -1929,21 +1858,21 @@
       <c r="D24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>22</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>14</v>
       </c>
-      <c r="G24" s="4" t="n">
-        <f aca="false">F24/E24*100</f>
-        <v>63.6363636363636</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="H24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>100</v>
       </c>
@@ -1953,21 +1882,21 @@
       <c r="D25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>24</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>10</v>
       </c>
-      <c r="G25" s="4" t="n">
-        <f aca="false">F25/E25*100</f>
-        <v>41.6666666666667</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="H25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -1977,21 +1906,21 @@
       <c r="D26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="3">
         <v>22</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>14</v>
       </c>
-      <c r="G26" s="4" t="n">
-        <f aca="false">F26/E26*100</f>
-        <v>63.6363636363636</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="H26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2001,21 +1930,21 @@
       <c r="D27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>31</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>17</v>
       </c>
-      <c r="G27" s="4" t="n">
-        <f aca="false">F27/E27*100</f>
-        <v>54.8387096774194</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>54.838709677419352</v>
+      </c>
+      <c r="H27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>112</v>
       </c>
@@ -2025,21 +1954,21 @@
       <c r="D28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="3">
         <v>19</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>8</v>
       </c>
-      <c r="G28" s="4" t="n">
-        <f aca="false">F28/E28*100</f>
-        <v>42.1052631578947</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>42.105263157894733</v>
+      </c>
+      <c r="H28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>116</v>
       </c>
@@ -2049,85 +1978,77 @@
       <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>6</v>
       </c>
-      <c r="G29" s="4" t="n">
-        <f aca="false">F29/E29*100</f>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="0" t="n">
-        <f aca="false">SUM(E7:E29)</f>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f>SUM(E7:E29)</f>
         <v>404</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">SUM(F7:F29)</f>
+      <c r="F31">
+        <f>SUM(F7:F29)</f>
         <v>231</v>
       </c>
-      <c r="G31" s="12" t="n">
-        <f aca="false">F31/E31*100</f>
-        <v>57.1782178217822</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
+      <c r="G31" s="10">
+        <f>F31/E31*100</f>
+        <v>57.178217821782177</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>413</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>233</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="17.66"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2137,18 +2058,18 @@
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false">E4/D4*100</f>
-        <v>85.7142857142857</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F25" si="0">E4/D4*100</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2158,18 +2079,18 @@
       <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">E5/D5*100</f>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2179,19 +2100,19 @@
       <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false">E6/D6*100</f>
-        <v>66.6666666666667</v>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -2201,18 +2122,18 @@
       <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false">E7/D7*100</f>
-        <v>58.3333333333333</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -2222,18 +2143,18 @@
       <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">E8/D8*100</f>
-        <v>47.0588235294118</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>47.058823529411761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -2243,18 +2164,18 @@
       <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">E9/D9*100</f>
-        <v>59.0909090909091</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>59.090909090909093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2264,18 +2185,18 @@
       <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false">E10/D10*100</f>
-        <v>44.8275862068966</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>44.827586206896555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -2285,18 +2206,18 @@
       <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>26</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>18</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">E11/D11*100</f>
-        <v>69.2307692307692</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -2306,18 +2227,18 @@
       <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="n">
-        <f aca="false">E12/D12*100</f>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2327,18 +2248,18 @@
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>9</v>
       </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false">E13/D13*100</f>
-        <v>64.2857142857143</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>72</v>
       </c>
@@ -2348,18 +2269,18 @@
       <c r="C14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <f aca="false">E14/D14*100</f>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -2369,18 +2290,18 @@
       <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>15</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false">E15/D15*100</f>
-        <v>45.4545454545455</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -2390,18 +2311,18 @@
       <c r="C16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <f aca="false">E16/D16*100</f>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -2411,18 +2332,18 @@
       <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>18</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <f aca="false">E17/D17*100</f>
-        <v>58.0645161290323</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>58.064516129032263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
@@ -2432,18 +2353,18 @@
       <c r="C18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>40</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>22</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <f aca="false">E18/D18*100</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -2453,18 +2374,18 @@
       <c r="C19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>11</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>8</v>
       </c>
-      <c r="F19" s="4" t="n">
-        <f aca="false">E19/D19*100</f>
-        <v>72.7272727272727</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>72.727272727272734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
@@ -2474,18 +2395,18 @@
       <c r="C20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>14</v>
       </c>
-      <c r="F20" s="4" t="n">
-        <f aca="false">E20/D20*100</f>
-        <v>63.6363636363636</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
@@ -2495,18 +2416,18 @@
       <c r="C21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>24</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>10</v>
       </c>
-      <c r="F21" s="4" t="n">
-        <f aca="false">E21/D21*100</f>
-        <v>41.6666666666667</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -2516,18 +2437,18 @@
       <c r="C22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>22</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>14</v>
       </c>
-      <c r="F22" s="4" t="n">
-        <f aca="false">E22/D22*100</f>
-        <v>63.6363636363636</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -2537,18 +2458,18 @@
       <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="3">
         <v>31</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>17</v>
       </c>
-      <c r="F23" s="4" t="n">
-        <f aca="false">E23/D23*100</f>
-        <v>54.8387096774194</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>54.838709677419352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
@@ -2558,18 +2479,18 @@
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="3">
         <v>19</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>8</v>
       </c>
-      <c r="F24" s="4" t="n">
-        <f aca="false">E24/D24*100</f>
-        <v>42.1052631578947</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>42.105263157894733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -2579,58 +2500,50 @@
       <c r="C25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>8</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="F25" s="4" t="n">
-        <f aca="false">E25/D25*100</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="12"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView topLeftCell="B4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.7"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2650,1046 +2563,1027 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>18</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <f aca="false">F7/E7*100</f>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7:G26" si="0">F7/E7*100</f>
         <v>72</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="14" t="n">
-        <f aca="false">F8/E8*100</f>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="n">
-        <f aca="false">F9/E9*100</f>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>13</v>
       </c>
-      <c r="G10" s="14" t="n">
-        <f aca="false">F10/E10*100</f>
-        <v>72.2222222222222</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="H10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="14" t="n">
-        <f aca="false">F11/E11*100</f>
-        <v>66.6666666666667</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>9</v>
       </c>
-      <c r="G12" s="14" t="n">
-        <f aca="false">F12/E12*100</f>
-        <v>64.2857142857143</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="H12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>19</v>
       </c>
-      <c r="G13" s="14" t="n">
-        <f aca="false">F13/E13*100</f>
-        <v>65.5172413793104</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>65.517241379310349</v>
+      </c>
+      <c r="H13" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="14" t="n">
-        <f aca="false">F14/E14*100</f>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="14" t="n">
-        <f aca="false">F15/E15*100</f>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="14" t="n">
-        <f aca="false">F16/E16*100</f>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <f aca="false">F17/E17*100</f>
-        <v>38.8888888888889</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="H17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>23</v>
       </c>
-      <c r="G18" s="14" t="n">
-        <f aca="false">F18/E18*100</f>
-        <v>53.4883720930233</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>53.488372093023251</v>
+      </c>
+      <c r="H18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>14</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>11</v>
       </c>
-      <c r="G19" s="14" t="n">
-        <f aca="false">F19/E19*100</f>
-        <v>78.5714285714286</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="H19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="14" t="n">
-        <f aca="false">F20/E20*100</f>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>13</v>
       </c>
-      <c r="G21" s="14" t="n">
-        <f aca="false">F21/E21*100</f>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>38</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>23</v>
       </c>
-      <c r="G22" s="14" t="n">
-        <f aca="false">F22/E22*100</f>
-        <v>60.5263157894737</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>60.526315789473685</v>
+      </c>
+      <c r="H22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>10</v>
       </c>
-      <c r="G23" s="14" t="n">
-        <f aca="false">F23/E23*100</f>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>24</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>11</v>
       </c>
-      <c r="G24" s="14" t="n">
-        <f aca="false">F24/E24*100</f>
-        <v>45.8333333333333</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="H24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>10</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>7</v>
       </c>
-      <c r="G25" s="14" t="n">
-        <f aca="false">F25/E25*100</f>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="3">
         <v>8</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="14" t="n">
-        <f aca="false">F26/E26*100</f>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
-        <f aca="false">SUM(E7:E26)</f>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f>SUM(E7:E26)</f>
         <v>309</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">SUM(F7:F26)</f>
+      <c r="F28">
+        <f>SUM(F7:F26)</f>
         <v>181</v>
       </c>
-      <c r="G28" s="11" t="n">
-        <f aca="false">F28/E28*100</f>
-        <v>58.5760517799353</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
+      <c r="G28" s="9">
+        <f>F28/E28*100</f>
+        <v>58.576051779935277</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>303</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>174</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="18.84"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="16.7"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="3">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="3">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="n">
-        <f aca="false">E1/D1*100</f>
+      <c r="F1" s="12">
+        <f t="shared" ref="F1:F20" si="0">E1/D1*100</f>
         <v>72</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="n">
-        <f aca="false">E2/D2*100</f>
+      <c r="F2" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="n">
-        <f aca="false">E3/D3*100</f>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="n">
-        <f aca="false">E4/D4*100</f>
-        <v>72.2222222222222</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="H4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="n">
-        <f aca="false">E5/D5*100</f>
-        <v>66.6666666666667</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>9</v>
       </c>
-      <c r="F6" s="14" t="n">
-        <f aca="false">E6/D6*100</f>
-        <v>64.2857142857143</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="H6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>19</v>
       </c>
-      <c r="F7" s="14" t="n">
-        <f aca="false">E7/D7*100</f>
-        <v>65.5172413793104</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>65.517241379310349</v>
+      </c>
+      <c r="H7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="n">
-        <f aca="false">E8/D8*100</f>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="14" t="n">
-        <f aca="false">E9/D9*100</f>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="14" t="n">
-        <f aca="false">E10/D10*100</f>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="14" t="n">
-        <f aca="false">E11/D11*100</f>
-        <v>38.8888888888889</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="H11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>23</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <f aca="false">E12/D12*100</f>
-        <v>53.4883720930233</v>
-      </c>
-      <c r="H12" s="0" t="s">
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>53.488372093023251</v>
+      </c>
+      <c r="H12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="14" t="n">
-        <f aca="false">E13/D13*100</f>
-        <v>78.5714285714286</v>
-      </c>
-      <c r="H13" s="0" t="s">
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="H13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="14" t="n">
-        <f aca="false">E14/D14*100</f>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>20</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>13</v>
       </c>
-      <c r="F15" s="14" t="n">
-        <f aca="false">E15/D15*100</f>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>38</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>23</v>
       </c>
-      <c r="F16" s="14" t="n">
-        <f aca="false">E16/D16*100</f>
-        <v>60.5263157894737</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>60.526315789473685</v>
+      </c>
+      <c r="H16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>20</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>10</v>
       </c>
-      <c r="F17" s="14" t="n">
-        <f aca="false">E17/D17*100</f>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>24</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>11</v>
       </c>
-      <c r="F18" s="14" t="n">
-        <f aca="false">E18/D18*100</f>
-        <v>45.8333333333333</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="H18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>10</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>7</v>
       </c>
-      <c r="F19" s="14" t="n">
-        <f aca="false">E19/D19*100</f>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="14" t="n">
-        <f aca="false">E20/D20*100</f>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="11"/>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="9"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>